--- a/fastqFiles/fastqFiles_11.05.20.xlsx
+++ b/fastqFiles/fastqFiles_11.05.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6BDFBC-9A83-E44A-8CB8-3F38D15230BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D05D4-1728-A245-B93B-0FF2F936A8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{092C49C0-3BED-EC44-A01B-B4A447CFB230}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE7F24E-A077-CC42-A832-8658146C78E5}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1348,9 +1348,6 @@
       <c r="J22">
         <v>124.78580562659846</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1379,9 +1376,6 @@
       </c>
       <c r="J23">
         <v>127.39229765013056</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
